--- a/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t>Serie</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I380"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8613,13 +8616,36 @@
         <v>387</v>
       </c>
       <c r="B380">
-        <v>0.6</v>
+        <v>0.65</v>
+      </c>
+      <c r="C380">
+        <v>10930.59</v>
       </c>
       <c r="D380">
-        <v>0.95</v>
+        <v>1.09</v>
+      </c>
+      <c r="E380">
+        <v>2248.8</v>
       </c>
       <c r="F380">
-        <v>0.48</v>
+        <v>2.02</v>
+      </c>
+      <c r="G380">
+        <v>401.83</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>388</v>
+      </c>
+      <c r="B381">
+        <v>0.8</v>
+      </c>
+      <c r="D381">
+        <v>1.3</v>
+      </c>
+      <c r="F381">
+        <v>2.26</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
@@ -8639,13 +8639,22 @@
         <v>388</v>
       </c>
       <c r="B381">
-        <v>0.8</v>
+        <v>0.85</v>
+      </c>
+      <c r="C381">
+        <v>10056.66</v>
       </c>
       <c r="D381">
-        <v>1.3</v>
+        <v>1.35</v>
+      </c>
+      <c r="E381">
+        <v>2347.23</v>
       </c>
       <c r="F381">
-        <v>2.26</v>
+        <v>2.35</v>
+      </c>
+      <c r="G381">
+        <v>231.04</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t>Serie</t>
   </si>
@@ -1181,6 +1181,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8657,6 +8660,20 @@
         <v>231.04</v>
       </c>
     </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>389</v>
+      </c>
+      <c r="B382">
+        <v>1.54</v>
+      </c>
+      <c r="D382">
+        <v>2.26</v>
+      </c>
+      <c r="F382">
+        <v>4.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
@@ -8665,13 +8665,22 @@
         <v>389</v>
       </c>
       <c r="B382">
-        <v>1.54</v>
+        <v>1.64</v>
+      </c>
+      <c r="C382">
+        <v>11761.37</v>
       </c>
       <c r="D382">
-        <v>2.26</v>
+        <v>2.52</v>
+      </c>
+      <c r="E382">
+        <v>2041.53</v>
       </c>
       <c r="F382">
-        <v>4.08</v>
+        <v>4.1</v>
+      </c>
+      <c r="G382">
+        <v>470.37</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t>Serie</t>
   </si>
@@ -1184,6 +1184,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I382"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8683,6 +8686,20 @@
         <v>470.37</v>
       </c>
     </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>390</v>
+      </c>
+      <c r="B383">
+        <v>2.13</v>
+      </c>
+      <c r="D383">
+        <v>3.01</v>
+      </c>
+      <c r="F383">
+        <v>5.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en pesos 1990 a 2021 - Mensual.xlsx
@@ -8691,13 +8691,28 @@
         <v>390</v>
       </c>
       <c r="B383">
-        <v>2.13</v>
+        <v>2.46</v>
+      </c>
+      <c r="C383">
+        <v>11714.4</v>
       </c>
       <c r="D383">
-        <v>3.01</v>
+        <v>3.59</v>
+      </c>
+      <c r="E383">
+        <v>2086.05</v>
       </c>
       <c r="F383">
-        <v>5.27</v>
+        <v>5.67</v>
+      </c>
+      <c r="G383">
+        <v>295.09</v>
+      </c>
+      <c r="H383">
+        <v>6.93</v>
+      </c>
+      <c r="I383">
+        <v>49.9</v>
       </c>
     </row>
   </sheetData>
